--- a/Feature List.xlsx
+++ b/Feature List.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5.论文\CAED\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6811A8-0F21-4BFA-A85C-01AE8DC38B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25EF9B-4680-48F8-AC3D-E3F0787D3D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BFC2D4CC-1A43-4078-AB0A-D803F685DA91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BFC2D4CC-1A43-4078-AB0A-D803F685DA91}"/>
   </bookViews>
   <sheets>
     <sheet name="String" sheetId="1" r:id="rId1"/>
     <sheet name="File" sheetId="2" r:id="rId2"/>
     <sheet name="Numerical" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="211">
   <si>
     <t>build.model</t>
   </si>
@@ -531,39 +522,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The maxinum value in 10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The minunum value in 10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The time when the difference between the maximum and minimum values ​​no longer changes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The maxinum value of X in 10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The minunum value of X in 10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The maxinum value of Y in 10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The minunum value of Y in 10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The maxinum value of Z in 10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The minunum value of Z in 10s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -749,6 +708,34 @@
   </si>
   <si>
     <t>android.hardware.Sensor.TYPE_MAGNETIC_FIELD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The maximum value in 10s</t>
+  </si>
+  <si>
+    <t>The maximum value of X in 10s</t>
+  </si>
+  <si>
+    <t>The maximum value of Y in 10s</t>
+  </si>
+  <si>
+    <t>The maximum value of Z in 10s</t>
+  </si>
+  <si>
+    <t>The minimum value in 10s</t>
+  </si>
+  <si>
+    <t>The minimum value of X in 10s</t>
+  </si>
+  <si>
+    <t>The minimum value of Y in 10s</t>
+  </si>
+  <si>
+    <t>The minimum value of Z in 10s</t>
+  </si>
+  <si>
+    <t>The minimum value of X in 10s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,18 +1137,18 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="4" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
         <v>82</v>
@@ -1170,15 +1157,15 @@
         <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1187,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1217,9 +1204,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1228,15 +1215,15 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1245,15 +1232,15 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1262,7 +1249,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1304,9 +1291,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -1315,7 +1302,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1348,9 +1335,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -1359,7 +1346,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -1380,9 +1367,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -1391,7 +1378,7 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -1415,9 +1402,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -1426,7 +1413,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
@@ -1450,9 +1437,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -1461,7 +1448,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
@@ -1491,9 +1478,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -1502,7 +1489,7 @@
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
@@ -1535,9 +1522,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -1546,7 +1533,7 @@
         <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -1558,15 +1545,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
         <v>75</v>
@@ -1575,71 +1562,71 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
@@ -1648,141 +1635,141 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
         <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
         <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
         <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
@@ -1791,15 +1778,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
         <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
@@ -1817,130 +1804,130 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
         <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
         <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
         <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
         <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
         <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1958,515 +1945,515 @@
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
         <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
         <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
         <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
         <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
         <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
         <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
         <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
         <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
         <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
         <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
         <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
         <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
         <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
         <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
         <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
         <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
         <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
         <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
         <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
         <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
         <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s">
         <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
         <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
         <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
         <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B46" t="s">
         <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2480,434 +2467,434 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="A31" sqref="A31:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A38:A44"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C16"/>
     <mergeCell ref="C17:C23"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
